--- a/bom/MCP39F511_Breakout.xlsx
+++ b/bom/MCP39F511_Breakout.xlsx
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
-  <si>
-    <t xml:space="preserve">Sourced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Placed</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t xml:space="preserve">References</t>
   </si>
@@ -94,7 +88,7 @@
     <t xml:space="preserve">R_0603_1608Metric</t>
   </si>
   <si>
-    <t xml:space="preserve">R8</t>
+    <t xml:space="preserve">R8, R9</t>
   </si>
   <si>
     <t xml:space="preserve">RC0603FR-0710KL</t>
@@ -169,6 +163,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -250,10 +245,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -262,245 +257,206 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="0" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="0" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="B10" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
-        <v>9</v>
+      <c r="C10" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="B11" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>10</v>
+      <c r="C11" s="0" t="s">
+        <v>37</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="B12" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>11</v>
+      <c r="C12" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="0" t="n">
+      <c r="E12" s="0" t="n">
         <v>1</v>
       </c>
     </row>
